--- a/BST_DataSet.xlsx
+++ b/BST_DataSet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chrome_dl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimlyara/Documents/GitHub/case_modeling_of_deposits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68805BAE-0130-454F-B4B7-F3FA0E125788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D128D-DB20-EE4E-A053-0027ED55B213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30940" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,19 +172,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,8 +216,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,9 +233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -276,9 +273,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,26 +308,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,26 +343,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,3235 +525,3235 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="12.5" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="16">
         <v>40544</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>-79049</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>5.2446666666666664</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>7.75</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>2.9</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>4.5</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>96.29</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>106.17151</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="10">
         <v>5062.7</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>20011.900000000001</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>30.08</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>20669</v>
       </c>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="16">
         <v>40575</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>180475</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>5.1442105263157911</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>3.1</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>103.96</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>106.99964</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>4830.7</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>19307.7</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>29.29</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>20680</v>
       </c>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
         <v>40603</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>106845</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>5.0213636363636374</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>8</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>3.1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>4.2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>114.44</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>107.66304</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>4898</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>19536.7</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>28.43</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>22673</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
         <v>40634</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>224890</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>4.5585714285714278</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>8</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2.6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>123.15</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>108.12599</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <v>4918.2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>19788.7</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>28.1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>22519</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
         <v>40664</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45856</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4.7949999999999999</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>8.25</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>2.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>114.46</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>108.645</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>5071.3</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>20020.8</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>27.87</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>22779</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
         <v>40695</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>227020</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>4.9347619047619062</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>8.25</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>2.6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>4.2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>113.76</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>108.89488</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>5079.8</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>20160.900000000001</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>27.98</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>24137</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
         <v>40725</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>133756</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>4.7776190476190479</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>8.25</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>2.6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>4</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>116.46</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>108.88399</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>5192.2</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>20721.900000000001</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>27.9</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>23598</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>40756</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>10165</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>5.2152173913043471</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>8.25</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>2.6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>110.08</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>108.62267</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <v>5306.6</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>20828.099999999999</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>28.77</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>23051</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>40787</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>45398</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>5.873636363636364</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>8.25</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>2.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>4</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>110.88</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>108.57922000000001</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>5343</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>21061.9</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>30.49</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>23468</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>40817</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>17145</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>6.4438095238095237</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>8.25</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>2.9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>4.5</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>109.47</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>109.10039999999999</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>5420.4</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>21480.400000000001</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>31.35</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>23602</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>40848</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>137814</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>6.3490476190476199</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>8.25</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>5.5</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>110.5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>109.55862</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="10">
         <v>5420.1</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>21366.7</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>30.86</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>24296</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>40878</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>733416</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>6.5277272727272724</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>3.1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>5.7</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>107.97</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>110.04067999999999</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>5475.2</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>21920</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>31.45</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>32809</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
         <v>40909</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>-168795</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>6.4119047619047604</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>3.1</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>5.8</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>110.99</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>110.59088</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="10">
         <v>5938.6</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>24204.799999999999</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>31.51</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>23746</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>40940</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>169513</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>6.2900000000000018</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>8</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>5.3</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>119.7</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>111.00006999999999</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>5670.7</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>23349.1</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>29.88</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>24036</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>40969</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>112927</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>6.2941379310344834</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>8</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>5.3</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>124.93</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>111.64387000000001</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>5713</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>23542.5</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>29.37</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>25487</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="16">
         <v>41000</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>267029</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>6.4196666666666662</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>8</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>3.2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>5.5</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>120.59</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>111.98997</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>5704.3</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>23747.8</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>29.47</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>25800</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>41030</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>80873</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>6.5670000000000019</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>8</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>2.8</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>5.2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>110.52</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>112.57231</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>5831.5</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>23923.8</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>30.65</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>26385</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="16">
         <v>41061</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>274860</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>6.9293333333333331</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>8</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>2.8</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>5.4</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>95.59</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <v>113.57420999999999</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>5856.4</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>24036.3</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>32.909999999999997</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>27494</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
         <v>41091</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>13565</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>6.5196774193548395</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>8</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>2.9</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>5.3</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>103.14</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>114.97117</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>6003.9</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>24461</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>32.5</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>26684</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="16">
         <v>41122</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>112922</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>6.2951612903225804</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>8</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>2.8</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>5.2</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>113.34</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>115.08614</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>5976.3</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>24306.3</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>31.97</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>25718</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
         <v>41153</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>64540</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>6.3676666666666657</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>8.25</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>2.9</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>5.5</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>113.38</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>115.71912</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>5980</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>24284.2</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>31.52</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>25996</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="16">
         <v>41183</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>74009</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>6.4816129032258063</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>8.25</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>3</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>5.8</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>111.97</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <v>116.25142</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>5969.2</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>24437.8</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>31.09</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>26803</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
         <v>41214</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>252527</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>6.512666666666667</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>8.25</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>2.9</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>6</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>109.71</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>116.64668</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>5931.3</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>24444.799999999999</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>31.41</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>27448</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16">
         <v>41244</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>807300</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>6.3</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>8.25</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>3.1</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>6.1</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>109.64</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>117.27657000000001</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>5975.4</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>24741</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>30.75</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>36450</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
         <v>41275</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>-187311</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>5.9561111111111096</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>8.25</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>2.6</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>6.1</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <v>112.93</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>118.41415000000001</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="10">
         <v>6430.1</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="10">
         <v>27164.6</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>30.26</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>26840</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16">
         <v>41306</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>292234</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>5.7309999999999999</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>8.25</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>3</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>6.2</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>116.46</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>119.07727</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="10">
         <v>6078.9</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>26348.7</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>30.16</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>26620</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
         <v>41334</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>248637</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>5.7714999999999996</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>8.25</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>6.1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>109.24</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>119.48214</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>6140.9</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>26768.400000000001</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>30.8</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>28693</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
         <v>41365</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>408961</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="8">
         <v>5.7063636363636361</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>8.25</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>2.9</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>6.1</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>102.88</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>120.09148999999999</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="10">
         <v>6181.4</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="10">
         <v>27198.6</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>31.33</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>30026</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
         <v>41395</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>-301</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="8">
         <v>5.8085714285714296</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>8.25</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>2.5</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>5.7</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>103.03</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>120.8841</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>6353.5</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>27377.1</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>31.24</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>29723</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>41426</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>302548</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="8">
         <v>6.1615789473684224</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>8.25</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>2.6</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="8">
         <v>5.6</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>103.11</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>121.39181000000001</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>6348.8</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>27593.4</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>32.28</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>30986</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>41456</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>78270</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="8">
         <v>5.9995652173913046</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>8.25</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>2.6</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>5.4</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>107.72</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>122.38722</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="10">
         <v>6470.3</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="10">
         <v>28212.3</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>32.74</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>30229</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
         <v>41487</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <v>86971</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>5.9968181818181812</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>8.25</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>2.5</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>5.3</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="10">
         <v>110.96</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>122.55857</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="10">
         <v>6480.1</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="10">
         <v>28443.9</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <v>33.020000000000003</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>29226</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>41518</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <v>5070</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="8">
         <v>6.0785714285714292</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>5.5</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>2.4</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>5.4</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>111.62</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>122.81594</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <v>6509.8</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>28499.9</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>32.630000000000003</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>29346</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
         <v>41548</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <v>95648</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="8">
         <v>6.0578260869565197</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>5.5</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <v>109.48</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>123.51599</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="10">
         <v>6414.4</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="10">
         <v>28352.6</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <v>32.06</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>30069</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
         <v>41579</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <v>142125</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="8">
         <v>6.1539999999999999</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>5.5</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>2.1</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <v>5</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>108.08</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>124.20768</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="10">
         <v>6419</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="10">
         <v>28276.400000000001</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>32.64</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>30290</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>41609</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <v>764180</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="8">
         <v>6.2428571428571429</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>5.5</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>110.63</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <v>124.84114</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <v>6564.1</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <v>28873.3</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>32.89</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>39648</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>41640</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <v>-567448</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="8">
         <v>6.1836842105263159</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>5.5</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>5.3</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>107.57</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <v>125.57769999999999</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="10">
         <v>6985.6</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="10">
         <v>31155.599999999999</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>33.46</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>29535</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>41671</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <v>77197</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>6.3564999999999987</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>5.5</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>1.84</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>5.09</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="10">
         <v>108.81</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="9">
         <v>126.45675</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="10">
         <v>6663.1</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="10">
         <v>29861.200000000001</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <v>35.22</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>29255</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
         <v>41699</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <v>-303341</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="8">
         <v>7.3975000000000026</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>7</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>1.66</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="8">
         <v>5.07</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>107.41</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="9">
         <v>127.7466</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <v>6699.9</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>30169</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <v>36.21</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>31486</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>41730</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <v>300439</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="8">
         <v>7.4472727272727246</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>7.5</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>1.87</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="8">
         <v>5.18</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>107.88</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <v>128.89632</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="10">
         <v>6608.2</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>29519.3</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <v>35.659999999999997</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>32947</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
         <v>41760</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <v>8596</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="8">
         <v>7.9320000000000004</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>7.5</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>1.78</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="8">
         <v>5.19</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>109.68</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="9">
         <v>130.05638999999999</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <v>6776.8</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>29879.200000000001</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <v>34.93</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>32272</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
         <v>41791</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <v>183236</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="8">
         <v>7.9068421052631557</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>7.5</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>1.83</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="8">
         <v>5.33</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>111.87</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>130.86274</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="10">
         <v>6763.1</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>29890.799999999999</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <v>34.409999999999997</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>33726</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
         <v>41821</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <v>96407</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="8">
         <v>8.2947826086956518</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>8</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>1.58</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>5.54</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>106.98</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>131.50397000000001</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="10">
         <v>6762.1980000000003</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <v>30071.8</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <v>34.64</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>32515</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="16">
         <v>41852</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>133248</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="8">
         <v>8.5966666666666676</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>8</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>1.77</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="8">
         <v>5.63</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>101.92</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>131.81958</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="10">
         <v>6871.2</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="10">
         <v>30178.3</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <v>36.11</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>30763</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="16">
         <v>41883</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>-52627</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="8">
         <v>8.6768181818181809</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>8</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>1.63</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="8">
         <v>5.71</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>97.34</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>132.6764</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="10">
         <v>6964.1</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="10">
         <v>30338.7</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <v>37.869999999999997</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>31929</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="16">
         <v>41913</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>-47208</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="8">
         <v>8.9621739130434772</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>8</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>1.95</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="8">
         <v>5.95</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <v>87.27</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>133.76435000000001</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="10">
         <v>6959.3</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>30297.599999999999</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <v>40.76</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>32439</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="16">
         <v>41944</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>-45024</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="8">
         <v>9.8589473684210525</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>9.5</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="8">
         <v>6.23</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>78.44</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>135.47653</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="10">
         <v>6907.6</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <v>29831.200000000001</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <v>45.86</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>32546</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="16">
         <v>41974</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>-77472</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="8">
         <v>13.480454545454547</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>17</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>5.22</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="8">
         <v>12.29</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>62.16</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>139.02601999999999</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="10">
         <v>6920</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <v>30141.9</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <v>55.41</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <v>42136</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="16">
         <v>42005</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>-187272</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="8">
         <v>15.098421052631579</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>17</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>5.22</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>12.33</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <v>48.42</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>144.37852000000001</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="10">
         <v>7171.4696709999998</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="10">
         <v>31615.718895099999</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <v>61.7</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <v>30929</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="16">
         <v>42036</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>369176</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="8">
         <v>13.11315789473684</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>15</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>5.2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="8">
         <v>11.22</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <v>57.93</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>147.58372</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="10">
         <v>6700.2718629999999</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="10">
         <v>31033.717926869998</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="10">
         <v>64.63</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <v>31325</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="16">
         <v>42064</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>186618</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="8">
         <v>12.795238095238094</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="8">
         <v>14</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>5.18</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="8">
         <v>11.16</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="10">
         <v>55.79</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>149.36949000000001</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="10">
         <v>6671.9227190000001</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="10">
         <v>31224.976954350001</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="10">
         <v>60.23</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <v>32642</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="16">
         <v>42095</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>434065</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="8">
         <v>11.627272727272727</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="8">
         <v>14</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>3.96</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="8">
         <v>8.9700000000000006</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="10">
         <v>59.39</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>150.05659</v>
       </c>
-      <c r="I53" s="11">
+      <c r="I53" s="10">
         <v>6540.8553099999999</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="10">
         <v>31028.841248339995</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="10">
         <v>52.87</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="10">
         <v>34377</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="16">
         <v>42125</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>68827</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="8">
         <v>10.42722222222222</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="8">
         <v>12.5</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>3.54</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>8.86</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>64.56</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>150.58179000000001</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="10">
         <v>6619.6093929999997</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="10">
         <v>31696.853516030002</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <v>50.58</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="10">
         <v>34380</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="16">
         <v>42156</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>231858</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="8">
         <v>10.560476190476191</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="8">
         <v>11.5</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>2.7</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="8">
         <v>9.39</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>62.35</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>150.86788999999999</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
         <v>6576.7519590000002</v>
       </c>
-      <c r="J55" s="11">
+      <c r="J55" s="10">
         <v>31820.37792495</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <v>54.5</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <v>35395</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="16">
         <v>42186</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>185049</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="8">
         <v>10.199130434782608</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="8">
         <v>11.5</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>8.74</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="10">
         <v>55.87</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="9">
         <v>152.07482999999999</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="10">
         <v>6659.4956030000003</v>
       </c>
-      <c r="J56" s="11">
+      <c r="J56" s="10">
         <v>31936.293528119997</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>57.07</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="10">
         <v>33901</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="16">
         <v>42217</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>7104</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="8">
         <v>10.564761904761903</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="8">
         <v>11</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>1.98</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="8">
         <v>8.44</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="10">
         <v>46.99</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="9">
         <v>152.6071</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="10">
         <v>6759.5263109999996</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="10">
         <v>32072.487389020003</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="10">
         <v>65.150000000000006</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="10">
         <v>32176</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="16">
         <v>42248</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>75169</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="8">
         <v>10.977727272727272</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="8">
         <v>11</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>1.9</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>8.4499999999999993</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>47.23</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="9">
         <v>153.47695999999999</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="10">
         <v>6785.7303490000004</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="10">
         <v>32361.002536420001</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <v>66.77</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="10">
         <v>32911</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="16">
         <v>42278</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>120663</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="8">
         <v>10.390909090909091</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>11</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>1.7</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="8">
         <v>6.92</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <v>48.12</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="9">
         <v>154.61268999999999</v>
       </c>
-      <c r="I59" s="11">
+      <c r="I59" s="10">
         <v>6744.8541830000004</v>
       </c>
-      <c r="J59" s="11">
+      <c r="J59" s="10">
         <v>32052.488150470002</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <v>63.07</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="10">
         <v>33357</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="16">
         <v>42309</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>165837</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="8">
         <v>10.299999999999997</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="8">
         <v>11</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>1.65</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>7.45</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="10">
         <v>44.42</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="9">
         <v>155.77227999999999</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="10">
         <v>6786.9197569999997</v>
       </c>
-      <c r="J60" s="11">
+      <c r="J60" s="10">
         <v>32160.99116315</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <v>65.03</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <v>33347</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="16">
         <v>42339</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>1034556</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="8">
         <v>10.52</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="8">
         <v>11</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>1.68</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="8">
         <v>8.43</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="10">
         <v>37.72</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="9">
         <v>156.97173000000001</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="10">
         <v>6786.5971820000004</v>
       </c>
-      <c r="J61" s="11">
+      <c r="J61" s="10">
         <v>32744.9582042</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <v>69.66</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <v>43408</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="16">
         <v>42370</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>-454791</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="8">
         <v>10.308888888888893</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="8">
         <v>11</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>1.58</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="10">
         <v>30.8</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="9">
         <v>158.47865999999999</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="10">
         <v>7239.1459050000003</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="10">
         <v>35179.714815300002</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <v>76.25</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <v>32660</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="16">
         <v>42401</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>269297</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="8">
         <v>9.9304761904761882</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="8">
         <v>11</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>1.62</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="8">
         <v>7.68</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="10">
         <v>33.200000000000003</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>159.47707</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="10">
         <v>7055.1408250000004</v>
       </c>
-      <c r="J63" s="11">
+      <c r="J63" s="10">
         <v>33966.453990620001</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="10">
         <v>77.22</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="10">
         <v>33873</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
         <v>42430</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>147971</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="8">
         <v>9.5059090909090873</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="8">
         <v>11</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>1.59</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="8">
         <v>7.46</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>39.07</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>160.21066999999999</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="10">
         <v>7149.7954600000003</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="10">
         <v>34309.649660520001</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="10">
         <v>70.47</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="10">
         <v>35501</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="16">
         <v>42461</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>379759</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="8">
         <v>9.7019047619047605</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="8">
         <v>11</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>1.3</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
         <v>7.67</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="10">
         <v>42.25</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>160.91559000000001</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="10">
         <v>7142.8922599999996</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="10">
         <v>34689.448390090001</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="10">
         <v>66.680000000000007</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <v>36497</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="16">
         <v>42491</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>131129</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="8">
         <v>9.5389473684210522</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="8">
         <v>11</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>1.19</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="8">
         <v>7.04</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>47.13</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>161.57534999999999</v>
       </c>
-      <c r="I66" s="11">
+      <c r="I66" s="10">
         <v>7301.4879709999996</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="10">
         <v>35105.469375040004</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="10">
         <v>65.66</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="10">
         <v>37270</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="16">
         <v>42522</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>260591</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="8">
         <v>9.7528571428571418</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="8">
         <v>10.5</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>0.97</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="8">
         <v>6.92</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>48.48</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>162.15701999999999</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="10">
         <v>7296.764604</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="10">
         <v>35642.933649080005</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="10">
         <v>65.31</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="10">
         <v>38447</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="16">
         <v>42552</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>98589</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="8">
         <v>9.6066666666666674</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="8">
         <v>10.5</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>0.87</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="8">
         <v>6.78</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="10">
         <v>45.07</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>163.03267</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="10">
         <v>7372.7037200000004</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="10">
         <v>35856.891826420004</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="10">
         <v>64.33</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="10">
         <v>35888</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="16">
         <v>42583</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <v>92168</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="8">
         <v>9.2743478260869558</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <v>10.5</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>0.89</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="8">
         <v>6.77</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>46.14</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>163.04897</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="10">
         <v>7462.3948090000004</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="10">
         <v>36031.670782170004</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="10">
         <v>64.92</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="10">
         <v>35405</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="16">
         <v>42614</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>20272</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="8">
         <v>9.0150000000000023</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <v>10</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>0.82</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="8">
         <v>6</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="10">
         <v>46.19</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>163.32615000000001</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="10">
         <v>7438.4795290000002</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="10">
         <v>36169.577925599995</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="10">
         <v>64.599999999999994</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="10">
         <v>35843</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="16">
         <v>42644</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>72037</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="8">
         <v>9.0023809523809497</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <v>10</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>0.71</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="8">
         <v>6.01</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <v>49.73</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>164.02846</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="10">
         <v>7412.196989</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="10">
         <v>36148.750478629998</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="10">
         <v>62.68</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="10">
         <v>35749</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="16">
         <v>42675</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>172323</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="8">
         <v>8.9361904761904771</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <v>10</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>0.72</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="8">
         <v>6.62</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="10">
         <v>46.44</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>164.75018</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="10">
         <v>7339.148803</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="10">
         <v>36051.043467940006</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <v>64.36</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <v>36195</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="16">
         <v>42705</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>889085</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="8">
         <v>8.6595454545454533</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <v>10</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>0.76</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="8">
         <v>6.5</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>54.07</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>165.40917999999999</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="10">
         <v>7317.2332219999998</v>
       </c>
-      <c r="J73" s="11">
+      <c r="J73" s="10">
         <v>36432.971672730004</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="10">
         <v>62.18</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="10">
         <v>47554</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="16">
         <v>42736</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="9">
+      <c r="B74" s="17"/>
+      <c r="C74" s="8">
         <v>8.4161904761904758</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="8">
         <v>10</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>0.79</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="8">
         <v>6.5</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="10">
         <v>54.89</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>166.43472</v>
       </c>
-      <c r="I74" s="11">
+      <c r="I74" s="10">
         <v>7714.7770710000004</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="10">
         <v>38417.973904219994</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="10">
         <v>59.96</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="10">
         <v>34422</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="16">
         <v>42767</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="9">
+      <c r="B75" s="17"/>
+      <c r="C75" s="8">
         <v>8.8305263157894718</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="8">
         <v>10</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="8">
         <v>0.77</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="8">
         <v>6.3</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="10">
         <v>55.49</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>166.80087</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="10">
         <v>7543.6821360000004</v>
       </c>
-      <c r="J75" s="11">
+      <c r="J75" s="10">
         <v>38016.827597260002</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="10">
         <v>58.39</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="10">
         <v>35497</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="16">
         <v>42795</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="9">
+      <c r="B76" s="17"/>
+      <c r="C76" s="8">
         <v>8.9877272727272715</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="8">
         <v>9.75</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="8">
         <v>0.8</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="8">
         <v>5.91</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>51.97</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="9">
         <v>167.01772</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="10">
         <v>7587.379089</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="10">
         <v>38462.292674130003</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="10">
         <v>58.1</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76" s="10">
         <v>37899</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="16">
         <v>42826</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="9">
+      <c r="B77" s="17"/>
+      <c r="C77" s="8">
         <v>8.6552631578947388</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="8">
         <v>9.75</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="8">
         <v>0.52</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="8">
         <v>6.25</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="10">
         <v>53.06</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="9">
         <v>167.56887</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="10">
         <v>7610.3468009999997</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="10">
         <v>38555.203676650002</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="10">
         <v>56.43</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="10">
         <v>39225</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="16">
         <v>42856</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="9">
+      <c r="B78" s="17"/>
+      <c r="C78" s="8">
         <v>8.3195000000000014</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="8">
         <v>9.25</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="8">
         <v>0.76</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="8">
         <v>6.1</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>50.87</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="9">
         <v>168.18888000000001</v>
       </c>
-      <c r="I78" s="11">
+      <c r="I78" s="10">
         <v>7775.2864529999997</v>
       </c>
-      <c r="J78" s="11">
+      <c r="J78" s="10">
         <v>38663.774532880001</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="10">
         <v>57.17</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="10">
         <v>39679</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="16">
         <v>42887</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="9">
+      <c r="B79" s="17"/>
+      <c r="C79" s="8">
         <v>8.0390476190476168</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="8">
         <v>9</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="8">
         <v>0.71</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="8">
         <v>5.7</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="10">
         <v>46.89</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="9">
         <v>169.21483000000001</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="10">
         <v>7813.3427419999998</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J79" s="10">
         <v>39222.853872109998</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="10">
         <v>57.82</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="10">
         <v>41454</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="16">
         <v>42917</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="9">
+      <c r="B80" s="17"/>
+      <c r="C80" s="8">
         <v>8.074285714285713</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="8">
         <v>9</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="8">
         <v>0.66</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="8">
         <v>6.07</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>48.5</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="9">
         <v>169.33328</v>
       </c>
-      <c r="I80" s="11">
+      <c r="I80" s="10">
         <v>7946.9208369999997</v>
       </c>
-      <c r="J80" s="11">
+      <c r="J80" s="10">
         <v>39623.111353979999</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="10">
         <v>59.67</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="10">
         <v>38073</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
         <v>42948</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="9">
+      <c r="B81" s="17"/>
+      <c r="C81" s="8">
         <v>7.8821739130434789</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="8">
         <v>9</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="8">
         <v>0.73</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="8">
         <v>6.07</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="10">
         <v>52</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="9">
         <v>168.41888</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="10">
         <v>8034.1882960000003</v>
       </c>
-      <c r="J81" s="11">
+      <c r="J81" s="10">
         <v>39275.911027920003</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="10">
         <v>59.65</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="10">
         <v>37099</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
         <v>42979</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="9">
+      <c r="B82" s="17"/>
+      <c r="C82" s="8">
         <v>7.6480952380952392</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="8">
         <v>8.5</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="8">
         <v>0.66</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="8">
         <v>5.31</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>57</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="9">
         <v>168.16624999999999</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="10">
         <v>8066.7721099999999</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="10">
         <v>39419.314227659997</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="10">
         <v>57.73</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="10">
         <v>38047</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
         <v>43009</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="9">
+      <c r="B83" s="17"/>
+      <c r="C83" s="8">
         <v>7.503636363636363</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="8">
         <v>8.25</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="8">
         <v>0.61</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
         <v>5.67</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>57.5</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="9">
         <v>168.50259</v>
       </c>
-      <c r="I83" s="11">
+      <c r="I83" s="10">
         <v>8089.5272150000001</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="10">
         <v>39570.98853517</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="10">
         <v>57.71</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="10">
         <v>38333</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
         <v>43040</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="9">
+      <c r="B84" s="17"/>
+      <c r="C84" s="8">
         <v>7.3814285714285708</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="8">
         <v>8.25</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="8">
         <v>0.64</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="8">
         <v>5.18</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>63.1</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="9">
         <v>168.852459482</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="10">
         <v>8071.5288890000002</v>
       </c>
-      <c r="J84" s="11">
+      <c r="J84" s="10">
         <v>39667.451689529997</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <v>58.92</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="10">
         <v>38848</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="17">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
         <v>43070</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="9">
+      <c r="B85" s="17"/>
+      <c r="C85" s="8">
         <v>6.9780952380952375</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="8">
         <v>7.75</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="8">
         <v>0.73</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="8">
         <v>5.27</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="10">
         <v>64.900000000000006</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>169.560950418</v>
       </c>
-      <c r="I85" s="11">
+      <c r="I85" s="10">
         <v>8073.9421480000001</v>
       </c>
-      <c r="J85" s="11">
+      <c r="J85" s="10">
         <v>40114.408277790004</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="10">
         <v>58.59</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85" s="10">
         <v>50500</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
     </row>
